--- a/foodinsecurity.xlsx
+++ b/foodinsecurity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramyaprasad/Documents/HackTX JP Morgan Food Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{098F5D39-DCCB-124E-AB61-F7A94F165817}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D2D7B430-EE7B-0A4F-A446-04F9AAAE56FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
@@ -1664,7 +1664,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="150.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
